--- a/xlsx/country_comparison/well_being_mean.xlsx
+++ b/xlsx/country_comparison/well_being_mean.xlsx
@@ -50,10 +50,10 @@
     <t xml:space="preserve">Well-being: Gallup, 0-10 scale</t>
   </si>
   <si>
+    <t xml:space="preserve">Well-being: World Values Survey, 0-10 scale</t>
+  </si>
+  <si>
     <t xml:space="preserve">Well-being: Gallup, 1-10 scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Well-being: World Values Survey, 0-10 scale</t>
   </si>
   <si>
     <t xml:space="preserve">Well-being: World Values Survey, 1-10 scale</t>
@@ -428,34 +428,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>6.16644482015783</v>
+        <v>5.87841184602321</v>
       </c>
       <c r="C2" t="n">
-        <v>6.10262928688724</v>
+        <v>5.92469032819576</v>
       </c>
       <c r="D2" t="n">
-        <v>6.45880465866077</v>
+        <v>5.97019988729424</v>
       </c>
       <c r="E2" t="n">
-        <v>5.37003058103976</v>
+        <v>5.280008148175</v>
       </c>
       <c r="F2" t="n">
-        <v>5.2991157338096</v>
+        <v>5.5918001686795</v>
       </c>
       <c r="G2" t="n">
-        <v>6.34732479815645</v>
+        <v>6.41132056925943</v>
       </c>
       <c r="H2" t="n">
-        <v>5.53927722851211</v>
+        <v>5.58533915135451</v>
       </c>
       <c r="I2" t="n">
-        <v>7.32856042587974</v>
+        <v>7.27463312661608</v>
       </c>
       <c r="J2" t="n">
-        <v>5.9016612797237</v>
+        <v>5.49947027799329</v>
       </c>
       <c r="K2" t="n">
-        <v>7.11743049161498</v>
+        <v>6.51350971021734</v>
       </c>
     </row>
     <row r="3">
@@ -463,34 +463,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>6.6968863837129</v>
+        <v>6.64395468533036</v>
       </c>
       <c r="C3" t="n">
-        <v>6.62043243413827</v>
+        <v>6.77525654338544</v>
       </c>
       <c r="D3" t="n">
-        <v>6.68464935013828</v>
+        <v>6.52412800266679</v>
       </c>
       <c r="E3" t="n">
-        <v>5.74458874458874</v>
+        <v>5.0315320343565</v>
       </c>
       <c r="F3" t="n">
-        <v>5.55562849455684</v>
+        <v>5.86580988395641</v>
       </c>
       <c r="G3" t="n">
-        <v>6.24892241065717</v>
+        <v>6.95125369163992</v>
       </c>
       <c r="H3" t="n">
-        <v>6.50139218384311</v>
+        <v>7.07842946651205</v>
       </c>
       <c r="I3" t="n">
-        <v>6.85005539421627</v>
+        <v>7.39060462286982</v>
       </c>
       <c r="J3" t="n">
-        <v>6.46087023670914</v>
+        <v>6.66577524314472</v>
       </c>
       <c r="K3" t="n">
-        <v>7.74522865050217</v>
+        <v>7.42276525405646</v>
       </c>
     </row>
     <row r="4">
@@ -498,34 +498,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>6.93414311545587</v>
+        <v>6.46749250290464</v>
       </c>
       <c r="C4" t="n">
-        <v>7.30769131775666</v>
+        <v>6.41769584454064</v>
       </c>
       <c r="D4" t="n">
-        <v>5.84423519266304</v>
+        <v>6.15158689473559</v>
       </c>
       <c r="E4" t="n">
-        <v>5.81212121212121</v>
+        <v>5.45342978175022</v>
       </c>
       <c r="F4" t="n">
-        <v>6.10633897544352</v>
+        <v>5.62963611228728</v>
       </c>
       <c r="G4" t="n">
-        <v>6.96403187472271</v>
+        <v>6.22246492413232</v>
       </c>
       <c r="H4" t="n">
-        <v>6.96642180613136</v>
+        <v>6.14443355156965</v>
       </c>
       <c r="I4" t="n">
-        <v>7.26079772918152</v>
+        <v>6.81506493137912</v>
       </c>
       <c r="J4" t="n">
-        <v>7.42041228263763</v>
+        <v>6.37208484279915</v>
       </c>
       <c r="K4" t="n">
-        <v>6.83279187734436</v>
+        <v>7.12630240712316</v>
       </c>
     </row>
     <row r="5">
@@ -533,34 +533,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>6.76597616210906</v>
+        <v>6.64452182952115</v>
       </c>
       <c r="C5" t="n">
-        <v>6.1368398207161</v>
+        <v>6.67035980020322</v>
       </c>
       <c r="D5" t="n">
-        <v>7.58522088293766</v>
+        <v>6.46839680415125</v>
       </c>
       <c r="E5" t="n">
-        <v>6.10215053763441</v>
+        <v>4.97123596389322</v>
       </c>
       <c r="F5" t="n">
-        <v>6.35976199496405</v>
+        <v>6.47981857632604</v>
       </c>
       <c r="G5" t="n">
-        <v>6.89712128195983</v>
+        <v>7.05754675571527</v>
       </c>
       <c r="H5" t="n">
-        <v>7.27978620139628</v>
+        <v>6.87330435806966</v>
       </c>
       <c r="I5" t="n">
-        <v>7.08322998976276</v>
+        <v>7.33734062697495</v>
       </c>
       <c r="J5" t="n">
-        <v>7.17453991895154</v>
+        <v>7.03921368394477</v>
       </c>
       <c r="K5" t="n">
-        <v>8.15778578961767</v>
+        <v>7.50589327460418</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/well_being_mean.xlsx
+++ b/xlsx/country_comparison/well_being_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Well-being: Gallup, 0-10 scale</t>
@@ -422,145 +428,175 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>5.87841184602321</v>
+        <v>5.86191214027232</v>
       </c>
       <c r="C2" t="n">
-        <v>5.92469032819576</v>
+        <v>5.85358762450937</v>
       </c>
       <c r="D2" t="n">
-        <v>5.97019988729424</v>
+        <v>5.95520706901601</v>
       </c>
       <c r="E2" t="n">
-        <v>5.280008148175</v>
+        <v>6.03839632076961</v>
       </c>
       <c r="F2" t="n">
-        <v>5.5918001686795</v>
+        <v>6.0538342057273</v>
       </c>
       <c r="G2" t="n">
-        <v>6.41132056925943</v>
+        <v>5.44745082620685</v>
       </c>
       <c r="H2" t="n">
-        <v>5.58533915135451</v>
+        <v>5.77144661109259</v>
       </c>
       <c r="I2" t="n">
-        <v>7.27463312661608</v>
+        <v>5.7053678603479</v>
       </c>
       <c r="J2" t="n">
-        <v>5.49947027799329</v>
+        <v>6.89404267150435</v>
       </c>
       <c r="K2" t="n">
-        <v>6.51350971021734</v>
+        <v>5.32362294979745</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.253192041685</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5.97241239036669</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>6.64395468533036</v>
+        <v>6.34534333875601</v>
       </c>
       <c r="C3" t="n">
-        <v>6.77525654338544</v>
+        <v>6.6201574540313</v>
       </c>
       <c r="D3" t="n">
-        <v>6.52412800266679</v>
+        <v>6.58065994155462</v>
       </c>
       <c r="E3" t="n">
-        <v>5.0315320343565</v>
+        <v>6.72250654568806</v>
       </c>
       <c r="F3" t="n">
-        <v>5.86580988395641</v>
+        <v>6.59933897791982</v>
       </c>
       <c r="G3" t="n">
-        <v>6.95125369163992</v>
+        <v>5.93633769919625</v>
       </c>
       <c r="H3" t="n">
-        <v>7.07842946651205</v>
+        <v>6.90664013004142</v>
       </c>
       <c r="I3" t="n">
-        <v>7.39060462286982</v>
+        <v>6.55636070865114</v>
       </c>
       <c r="J3" t="n">
-        <v>6.66577524314472</v>
+        <v>6.83540341533351</v>
       </c>
       <c r="K3" t="n">
-        <v>7.42276525405646</v>
+        <v>5.10834042745774</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.9567082121321</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.54130194930968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>6.46749250290464</v>
+        <v>6.00630453626841</v>
       </c>
       <c r="C4" t="n">
-        <v>6.41769584454064</v>
+        <v>6.26530364943288</v>
       </c>
       <c r="D4" t="n">
-        <v>6.15158689473559</v>
+        <v>6.36047491866453</v>
       </c>
       <c r="E4" t="n">
-        <v>5.45342978175022</v>
+        <v>6.44255520734508</v>
       </c>
       <c r="F4" t="n">
-        <v>5.62963611228728</v>
+        <v>6.0651656703695</v>
       </c>
       <c r="G4" t="n">
-        <v>6.22246492413232</v>
+        <v>5.63612526446657</v>
       </c>
       <c r="H4" t="n">
-        <v>6.14443355156965</v>
+        <v>6.06552982118783</v>
       </c>
       <c r="I4" t="n">
-        <v>6.81506493137912</v>
+        <v>6.29721525324916</v>
       </c>
       <c r="J4" t="n">
-        <v>6.37208484279915</v>
+        <v>6.68314607618246</v>
       </c>
       <c r="K4" t="n">
-        <v>7.12630240712316</v>
+        <v>5.47554477895623</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.18349638217018</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5.94046008547774</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>6.64452182952115</v>
+        <v>6.48881605263268</v>
       </c>
       <c r="C5" t="n">
-        <v>6.67035980020322</v>
+        <v>6.74017462317741</v>
       </c>
       <c r="D5" t="n">
-        <v>6.46839680415125</v>
+        <v>6.76536729415642</v>
       </c>
       <c r="E5" t="n">
-        <v>4.97123596389322</v>
+        <v>6.79488052186068</v>
       </c>
       <c r="F5" t="n">
-        <v>6.47981857632604</v>
+        <v>6.62627363008396</v>
       </c>
       <c r="G5" t="n">
-        <v>7.05754675571527</v>
+        <v>6.43906290194816</v>
       </c>
       <c r="H5" t="n">
-        <v>6.87330435806966</v>
+        <v>6.91681143574328</v>
       </c>
       <c r="I5" t="n">
-        <v>7.33734062697495</v>
+        <v>6.70067799850446</v>
       </c>
       <c r="J5" t="n">
-        <v>7.03921368394477</v>
+        <v>7.32192858332353</v>
       </c>
       <c r="K5" t="n">
-        <v>7.50589327460418</v>
+        <v>4.97660812036248</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.00700820594519</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.71442484636803</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/well_being_mean.xlsx
+++ b/xlsx/country_comparison/well_being_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -434,13 +437,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>5.86191214027232</v>
+        <v>5.82746770964238</v>
       </c>
       <c r="C2" t="n">
         <v>5.85358762450937</v>
@@ -470,18 +476,21 @@
         <v>5.32362294979745</v>
       </c>
       <c r="L2" t="n">
+        <v>5.63337608697478</v>
+      </c>
+      <c r="M2" t="n">
         <v>6.253192041685</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>5.97241239036669</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>6.34534333875601</v>
+        <v>6.39491426855223</v>
       </c>
       <c r="C3" t="n">
         <v>6.6201574540313</v>
@@ -511,18 +520,21 @@
         <v>5.10834042745774</v>
       </c>
       <c r="L3" t="n">
+        <v>6.65486674425877</v>
+      </c>
+      <c r="M3" t="n">
         <v>6.9567082121321</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>6.54130194930968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>6.00630453626841</v>
+        <v>6.00564373160299</v>
       </c>
       <c r="C4" t="n">
         <v>6.26530364943288</v>
@@ -552,18 +564,21 @@
         <v>5.47554477895623</v>
       </c>
       <c r="L4" t="n">
+        <v>6.04133733359686</v>
+      </c>
+      <c r="M4" t="n">
         <v>6.18349638217018</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>5.94046008547774</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>6.48881605263268</v>
+        <v>6.58094549430649</v>
       </c>
       <c r="C5" t="n">
         <v>6.74017462317741</v>
@@ -593,9 +608,12 @@
         <v>4.97660812036248</v>
       </c>
       <c r="L5" t="n">
+        <v>7.15196702197628</v>
+      </c>
+      <c r="M5" t="n">
         <v>7.00700820594519</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>6.71442484636803</v>
       </c>
     </row>

--- a/xlsx/country_comparison/well_being_mean.xlsx
+++ b/xlsx/country_comparison/well_being_mean.xlsx
@@ -446,7 +446,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>5.82746770964238</v>
+        <v>5.81882386903052</v>
       </c>
       <c r="C2" t="n">
         <v>5.85358762450937</v>
@@ -473,16 +473,16 @@
         <v>6.89404267150435</v>
       </c>
       <c r="K2" t="n">
-        <v>5.32362294979745</v>
+        <v>5.32539287699954</v>
       </c>
       <c r="L2" t="n">
-        <v>5.63337608697478</v>
+        <v>5.61388394693101</v>
       </c>
       <c r="M2" t="n">
         <v>6.253192041685</v>
       </c>
       <c r="N2" t="n">
-        <v>5.97241239036669</v>
+        <v>5.96995445035665</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +490,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>6.39491426855223</v>
+        <v>6.3814326896262</v>
       </c>
       <c r="C3" t="n">
         <v>6.6201574540313</v>
@@ -517,16 +517,16 @@
         <v>6.83540341533351</v>
       </c>
       <c r="K3" t="n">
-        <v>5.10834042745774</v>
+        <v>5.10931509860574</v>
       </c>
       <c r="L3" t="n">
-        <v>6.65486674425877</v>
+        <v>6.57107962767097</v>
       </c>
       <c r="M3" t="n">
         <v>6.9567082121321</v>
       </c>
       <c r="N3" t="n">
-        <v>6.54130194930968</v>
+        <v>6.53853592031454</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>6.00564373160299</v>
+        <v>6.01615102819252</v>
       </c>
       <c r="C4" t="n">
         <v>6.26530364943288</v>
@@ -561,16 +561,16 @@
         <v>6.68314607618246</v>
       </c>
       <c r="K4" t="n">
-        <v>5.47554477895623</v>
+        <v>5.47619093217779</v>
       </c>
       <c r="L4" t="n">
-        <v>6.04133733359686</v>
+        <v>6.13284527688992</v>
       </c>
       <c r="M4" t="n">
         <v>6.18349638217018</v>
       </c>
       <c r="N4" t="n">
-        <v>5.94046008547774</v>
+        <v>5.9415796792875</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>6.58094549430649</v>
+        <v>6.56898954989401</v>
       </c>
       <c r="C5" t="n">
         <v>6.74017462317741</v>
@@ -605,16 +605,16 @@
         <v>7.32192858332353</v>
       </c>
       <c r="K5" t="n">
-        <v>4.97660812036248</v>
+        <v>4.9774227197546</v>
       </c>
       <c r="L5" t="n">
-        <v>7.15196702197628</v>
+        <v>7.05875158081179</v>
       </c>
       <c r="M5" t="n">
         <v>7.00700820594519</v>
       </c>
       <c r="N5" t="n">
-        <v>6.71442484636803</v>
+        <v>6.71394968146351</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/well_being_mean.xlsx
+++ b/xlsx/country_comparison/well_being_mean.xlsx
@@ -446,7 +446,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>5.81882386903052</v>
+        <v>5.81714707784717</v>
       </c>
       <c r="C2" t="n">
         <v>5.85358762450937</v>
@@ -476,7 +476,7 @@
         <v>5.32539287699954</v>
       </c>
       <c r="L2" t="n">
-        <v>5.61388394693101</v>
+        <v>5.60241266790566</v>
       </c>
       <c r="M2" t="n">
         <v>6.253192041685</v>
@@ -490,7 +490,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>6.3814326896262</v>
+        <v>6.38308258262284</v>
       </c>
       <c r="C3" t="n">
         <v>6.6201574540313</v>
@@ -520,7 +520,7 @@
         <v>5.10931509860574</v>
       </c>
       <c r="L3" t="n">
-        <v>6.57107962767097</v>
+        <v>6.58293485463342</v>
       </c>
       <c r="M3" t="n">
         <v>6.9567082121321</v>
@@ -534,7 +534,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>6.01615102819252</v>
+        <v>6.01644071117871</v>
       </c>
       <c r="C4" t="n">
         <v>6.26530364943288</v>
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>6.56898954989401</v>
+        <v>6.56604977851573</v>
       </c>
       <c r="C5" t="n">
         <v>6.74017462317741</v>
@@ -608,7 +608,7 @@
         <v>4.9774227197546</v>
       </c>
       <c r="L5" t="n">
-        <v>7.05875158081179</v>
+        <v>7.04790297162438</v>
       </c>
       <c r="M5" t="n">
         <v>7.00700820594519</v>
